--- a/Messungen/Fahrzeuge/DopplerTest.xlsx
+++ b/Messungen/Fahrzeuge/DopplerTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht\Messungen\Fahrzeuge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E18349A-5E77-429A-9FFF-F7E881A8E5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB4210-AB68-4B4F-A0D5-BCAB9C8D7910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{41950294-8513-412F-89F0-CEA28233BB78}"/>
   </bookViews>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5428B1-F219-47F9-9DC7-4184A564F517}">
-  <dimension ref="E6:N52"/>
+  <dimension ref="E6:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1476,21 +1476,428 @@
       </c>
     </row>
     <row r="52" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="F52" s="1">
+        <v>81</v>
+      </c>
+      <c r="G52" s="1">
+        <v>73</v>
+      </c>
       <c r="I52">
         <v>343</v>
       </c>
-      <c r="K52" s="2" t="e">
+      <c r="K52" s="2">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M52" s="3" t="e">
+        <v>1.1095890410958904</v>
+      </c>
+      <c r="M52" s="3">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N52" s="3" t="e">
-        <f t="shared" si="2"/>
+        <v>17.818181818181817</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="2"/>
+        <v>64.145454545454541</v>
+      </c>
+    </row>
+    <row r="53" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F53" s="1">
+        <v>115</v>
+      </c>
+      <c r="G53" s="1">
+        <v>110</v>
+      </c>
+      <c r="I53">
+        <v>343</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" ref="K53:K73" si="16">F53/G53</f>
+        <v>1.0454545454545454</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" ref="M53:M73" si="17">((K53-1)/(K53+1))*I53</f>
+        <v>7.6222222222222156</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" ref="N53:N73" si="18">M53*3.6</f>
+        <v>27.439999999999976</v>
+      </c>
+    </row>
+    <row r="54" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="I54">
+        <v>343</v>
+      </c>
+      <c r="K54" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N54" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="I55">
+        <v>343</v>
+      </c>
+      <c r="K55" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N55" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="I56">
+        <v>343</v>
+      </c>
+      <c r="K56" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="I57">
+        <v>343</v>
+      </c>
+      <c r="K57" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="I58">
+        <v>343</v>
+      </c>
+      <c r="K58" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="I59">
+        <v>343</v>
+      </c>
+      <c r="K59" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N59" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="I60">
+        <v>343</v>
+      </c>
+      <c r="K60" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="I61">
+        <v>343</v>
+      </c>
+      <c r="K61" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="I62">
+        <v>343</v>
+      </c>
+      <c r="K62" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N62" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="I63">
+        <v>343</v>
+      </c>
+      <c r="K63" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N63" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="I64">
+        <v>343</v>
+      </c>
+      <c r="K64" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N64" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="I65">
+        <v>343</v>
+      </c>
+      <c r="K65" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N65" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="I66">
+        <v>343</v>
+      </c>
+      <c r="K66" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="I67">
+        <v>343</v>
+      </c>
+      <c r="K67" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M67" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N67" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="I68">
+        <v>343</v>
+      </c>
+      <c r="K68" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M68" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N68" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="I69">
+        <v>343</v>
+      </c>
+      <c r="K69" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M69" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N69" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="I70">
+        <v>343</v>
+      </c>
+      <c r="K70" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M70" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N70" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="I71">
+        <v>343</v>
+      </c>
+      <c r="K71" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M71" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N71" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="I72">
+        <v>343</v>
+      </c>
+      <c r="K72" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M72" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N72" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="I73">
+        <v>343</v>
+      </c>
+      <c r="K73" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M73" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N73" s="3" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
